--- a/graph_generation/results_prelim/gpt3.5/level_1/k_3.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_1/k_3.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>prompt</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
@@ -84,10 +89,14 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
-    <t>Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
+    <t>The shortest path from node A to node J is:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>Output: 10/10</t>
   </si>
 </sst>
 </file>
@@ -445,13 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,19 +473,85 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_1/k_3.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_1/k_3.xlsx
@@ -35,7 +35,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the shortest path from node A to node K?
+Example 1: what is the shortest path from node A to node K? Return the sequence of nodes in response.
    A B C D E F G H I J K
  A 0 1 0 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0 0
@@ -49,7 +49,7 @@
  J 0 0 0 0 0 0 0 0 1 0 1
  K 0 0 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K
-Example 2: what is the shortest path from node A to node F?
+Example 2: what is the shortest path from node A to node F? Return the sequence of nodes in response.
    A B C D E F
  A 0 1 0 0 0 0
  B 1 0 1 0 0 0
@@ -58,7 +58,7 @@
  E 0 0 0 1 0 1
  F 0 0 0 0 1 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F
-Example 3: what is the shortest path from node A to node I?
+Example 3: what is the shortest path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
  A 0 1 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0
@@ -71,7 +71,7 @@
  I 0 0 0 0 0 0 0 1 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-what is the shortest path from node A to node J?
+what is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
  B 1 0 1 0 0 0 0 0 0 0
@@ -89,14 +89,13 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
-    <t>The shortest path from node A to node J is:
-A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
+    <t>The shortest path from node A to node J is: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
-    <t>Output: 10/10</t>
+    <t>10/10</t>
   </si>
 </sst>
 </file>
